--- a/Documentos/flujo de caja.xlsx
+++ b/Documentos/flujo de caja.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEJANDROIGNACIO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\biciomatic\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="flujo 1 venta" sheetId="2" r:id="rId1"/>
     <sheet name="caso positivo 4 clientes" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>Costo del desarrollo</t>
   </si>
@@ -94,9 +95,6 @@
     <t>Total Arts2.</t>
   </si>
   <si>
-    <t>Entrada de efectivo 6</t>
-  </si>
-  <si>
     <t>Entregable</t>
   </si>
   <si>
@@ -214,13 +212,16 @@
     <t>averiguar cantidad de prosibles clientes, minimo para el éxito 4</t>
   </si>
   <si>
-    <t>https://gigas.com/landings/cloud-vps-chile.html?country=CL&amp;gclid=CIuUm7Dlu8cCFVAJkQodl7UFNg</t>
-  </si>
-  <si>
     <t>Hosting vps pro (anual)</t>
   </si>
   <si>
     <t>650 lukas, inversion inicial en horas hombres cubre el tiempo de desarrollo mas un extra por gastos imprevistos, este flujo de caja es el nuestro por lo cual NOSOTROS estariamos recuperando nuestra inversion a traves de un año mientras que nuestros posibles clientes la recuperarian en cuestion de meses ya que el procesos de ARMADO de bicicletas con la utilizacion de herramientas cubriria la inversion de estos en tan solo unos meses.</t>
+  </si>
+  <si>
+    <t>imágenes($1000 c/u)</t>
+  </si>
+  <si>
+    <t>http://www.bluehosting.cl/vps/</t>
   </si>
 </sst>
 </file>
@@ -613,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,21 +713,6 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,6 +723,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1018,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1129,63 +1132,63 @@
       </c>
       <c r="H2" s="9">
         <f t="shared" si="0"/>
-        <v>-1837500</v>
+        <v>-1867300</v>
       </c>
       <c r="I2" s="9">
         <f t="shared" si="0"/>
-        <v>-2120000</v>
+        <v>-2149800</v>
       </c>
       <c r="J2" s="9">
         <f t="shared" si="0"/>
-        <v>-2362500</v>
+        <v>-2392300</v>
       </c>
       <c r="K2" s="9">
         <f>J2</f>
-        <v>-2362500</v>
+        <v>-2392300</v>
       </c>
       <c r="L2" s="9">
         <f>K2</f>
-        <v>-2362500</v>
+        <v>-2392300</v>
       </c>
       <c r="M2" s="9">
         <f t="shared" si="0"/>
-        <v>-2312500</v>
+        <v>-2342300</v>
       </c>
       <c r="N2" s="9">
         <f t="shared" si="0"/>
-        <v>-2262500</v>
+        <v>-2292300</v>
       </c>
       <c r="O2" s="9">
         <f t="shared" si="0"/>
-        <v>-2212500</v>
+        <v>-2242300</v>
       </c>
       <c r="P2" s="9">
         <f t="shared" si="0"/>
-        <v>-2122500</v>
+        <v>-2152300</v>
       </c>
       <c r="Q2" s="9">
         <f t="shared" si="0"/>
-        <v>-2072500</v>
+        <v>-2102300</v>
       </c>
       <c r="R2" s="9">
         <f t="shared" si="0"/>
-        <v>-2022500</v>
+        <v>-2052300</v>
       </c>
       <c r="S2" s="9">
         <f t="shared" si="0"/>
-        <v>-1972500</v>
+        <v>-2002300</v>
       </c>
       <c r="T2" s="9">
         <f t="shared" si="0"/>
-        <v>-1882500</v>
+        <v>-1912300</v>
       </c>
       <c r="U2" s="9">
         <f t="shared" si="0"/>
-        <v>-1832500</v>
+        <v>-1862300</v>
       </c>
       <c r="V2" s="9">
         <f t="shared" si="0"/>
-        <v>-1907500</v>
+        <v>-1967100</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1211,12 +1214,12 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="41"/>
+      <c r="U3" s="36"/>
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
@@ -1244,7 +1247,7 @@
     </row>
     <row r="5" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -1294,7 +1297,7 @@
     </row>
     <row r="6" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="7" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1354,7 +1357,7 @@
     </row>
     <row r="8" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -1407,87 +1410,87 @@
         <v>9</v>
       </c>
       <c r="B9" s="19">
-        <f>SUM(B4:B8)</f>
+        <f t="shared" ref="B9:V9" si="1">SUM(B4:B8)</f>
         <v>0</v>
       </c>
       <c r="C9" s="19">
-        <f>SUM(C4:C8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9" s="19">
-        <f>SUM(D4:D8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="19">
-        <f>SUM(E4:E8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9" s="19">
-        <f>SUM(F4:F8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="19">
-        <f>SUM(G4:G8)</f>
+        <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="H9" s="19">
-        <f>SUM(H4:H8)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="I9" s="19">
-        <f>SUM(I4:I8)</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="J9" s="19">
-        <f>SUM(J4:J8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="19">
-        <f>SUM(K4:K8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" s="19">
-        <f>SUM(L4:L8)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="M9" s="19">
-        <f>SUM(M4:M8)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="N9" s="19">
-        <f>SUM(N4:N8)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="O9" s="19">
-        <f>SUM(O4:O8)</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="P9" s="19">
-        <f>SUM(P4:P8)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="Q9" s="19">
-        <f>SUM(Q4:Q8)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="R9" s="19">
-        <f>SUM(R4:R8)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="S9" s="19">
-        <f>SUM(S4:S8)</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="T9" s="19">
-        <f>SUM(T4:T8)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="U9" s="19">
-        <f>SUM(U4:U8)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="V9" s="19">
-        <f>SUM(V4:V8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1496,88 +1499,88 @@
         <v>10</v>
       </c>
       <c r="B10" s="20">
-        <f>SUM(B2+B9)</f>
+        <f t="shared" ref="B10:V10" si="2">SUM(B2+B9)</f>
         <v>-650000</v>
       </c>
       <c r="C10" s="20">
-        <f>SUM(C2+C9)</f>
+        <f t="shared" si="2"/>
         <v>-650000</v>
       </c>
       <c r="D10" s="20">
-        <f>SUM(D2+D9)</f>
+        <f t="shared" si="2"/>
         <v>-982500</v>
       </c>
       <c r="E10" s="20">
-        <f>SUM(E2+E9)</f>
+        <f t="shared" si="2"/>
         <v>-1315000</v>
       </c>
       <c r="F10" s="20">
-        <f>SUM(F2+F9)</f>
+        <f t="shared" si="2"/>
         <v>-1647500</v>
       </c>
       <c r="G10" s="20">
-        <f>SUM(G2+G9)</f>
+        <f t="shared" si="2"/>
         <v>-1380000</v>
       </c>
       <c r="H10" s="20">
-        <f>SUM(H2+H9)</f>
-        <v>-1787500</v>
+        <f t="shared" si="2"/>
+        <v>-1817300</v>
       </c>
       <c r="I10" s="20">
-        <f>SUM(I2+I9)</f>
-        <v>-2030000</v>
+        <f t="shared" si="2"/>
+        <v>-2059800</v>
       </c>
       <c r="J10" s="20">
-        <f>SUM(J2+J9)</f>
-        <v>-2362500</v>
+        <f t="shared" si="2"/>
+        <v>-2392300</v>
       </c>
       <c r="K10" s="20">
-        <f>SUM(K2+K9)</f>
-        <v>-2362500</v>
+        <f t="shared" si="2"/>
+        <v>-2392300</v>
       </c>
       <c r="L10" s="20">
-        <f>SUM(L2+L9)</f>
-        <v>-2312500</v>
+        <f t="shared" si="2"/>
+        <v>-2342300</v>
       </c>
       <c r="M10" s="20">
-        <f>SUM(M2+M9)</f>
-        <v>-2262500</v>
+        <f t="shared" si="2"/>
+        <v>-2292300</v>
       </c>
       <c r="N10" s="20">
-        <f>SUM(N2+N9)</f>
-        <v>-2212500</v>
+        <f t="shared" si="2"/>
+        <v>-2242300</v>
       </c>
       <c r="O10" s="20">
-        <f>SUM(O2+O9)</f>
-        <v>-2122500</v>
+        <f t="shared" si="2"/>
+        <v>-2152300</v>
       </c>
       <c r="P10" s="20">
-        <f>SUM(P2+P9)</f>
-        <v>-2072500</v>
+        <f t="shared" si="2"/>
+        <v>-2102300</v>
       </c>
       <c r="Q10" s="20">
-        <f>SUM(Q2+Q9)</f>
-        <v>-2022500</v>
+        <f t="shared" si="2"/>
+        <v>-2052300</v>
       </c>
       <c r="R10" s="20">
-        <f>SUM(R2+R9)</f>
-        <v>-1972500</v>
+        <f t="shared" si="2"/>
+        <v>-2002300</v>
       </c>
       <c r="S10" s="20">
-        <f>SUM(S2+S9)</f>
-        <v>-1882500</v>
+        <f t="shared" si="2"/>
+        <v>-1912300</v>
       </c>
       <c r="T10" s="20">
-        <f>SUM(T2+T9)</f>
-        <v>-1832500</v>
+        <f t="shared" si="2"/>
+        <v>-1862300</v>
       </c>
       <c r="U10" s="20">
-        <f>SUM(U2+U9)</f>
-        <v>-1782500</v>
+        <f t="shared" si="2"/>
+        <v>-1812300</v>
       </c>
       <c r="V10" s="20">
-        <f>SUM(V2+V9)</f>
-        <v>-1907500</v>
+        <f t="shared" si="2"/>
+        <v>-1967100</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1608,7 +1611,7 @@
     </row>
     <row r="12" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -1616,7 +1619,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16">
-        <v>125000</v>
+        <v>154800</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -1632,13 +1635,13 @@
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16">
-        <v>125000</v>
+        <v>154800</v>
       </c>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16">
@@ -1678,7 +1681,7 @@
     </row>
     <row r="14" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="16">
@@ -1718,7 +1721,7 @@
     </row>
     <row r="15" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="16">
@@ -1761,87 +1764,87 @@
         <v>12</v>
       </c>
       <c r="B16" s="20">
-        <f>SUM(B12:B15)</f>
+        <f t="shared" ref="B16:V16" si="3">SUM(B12:B15)</f>
         <v>0</v>
       </c>
       <c r="C16" s="20">
-        <f>SUM(C12:C15)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="D16" s="20">
-        <f>SUM(D12:D15)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="E16" s="20">
-        <f>SUM(E12:E15)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="F16" s="20">
-        <f>SUM(F12:F15)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="G16" s="20">
-        <f>SUM(G12:G15)</f>
-        <v>457500</v>
+        <f t="shared" si="3"/>
+        <v>487300</v>
       </c>
       <c r="H16" s="20">
-        <f>SUM(H12:H15)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="I16" s="20">
-        <f>SUM(I12:I15)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="J16" s="20">
-        <f>SUM(J12:J15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="20">
-        <f>SUM(K12:K15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16" s="20">
-        <f>SUM(L12:L15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="20">
-        <f>SUM(M12:M15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="20">
-        <f>SUM(N12:N15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="20">
-        <f>SUM(O12:O15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16" s="20">
-        <f>SUM(P12:P15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q16" s="20">
-        <f>SUM(Q12:Q15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R16" s="20">
-        <f>SUM(R12:R15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S16" s="20">
-        <f>SUM(S12:S15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="20">
-        <f>SUM(T12:T15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="20">
-        <f>SUM(U12:U15)</f>
-        <v>125000</v>
+        <f t="shared" si="3"/>
+        <v>154800</v>
       </c>
       <c r="V16" s="20">
-        <f>SUM(V12:V15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1850,87 +1853,87 @@
         <v>13</v>
       </c>
       <c r="B17" s="20">
-        <f t="shared" ref="B17:V17" si="1">SUM(B16:B16)</f>
+        <f t="shared" ref="B17:V17" si="4">SUM(B16:B16)</f>
         <v>0</v>
       </c>
       <c r="C17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>332500</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>332500</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>332500</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>332500</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="1"/>
-        <v>457500</v>
+        <f t="shared" si="4"/>
+        <v>487300</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>332500</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>332500</v>
       </c>
       <c r="J17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U17" s="20">
-        <f t="shared" si="1"/>
-        <v>125000</v>
+        <f t="shared" si="4"/>
+        <v>154800</v>
       </c>
       <c r="V17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1943,80 +1946,80 @@
         <v>-650000</v>
       </c>
       <c r="C18" s="22">
-        <f>C10-C17</f>
+        <f t="shared" ref="C18:U18" si="5">C10-C17</f>
         <v>-982500</v>
       </c>
       <c r="D18" s="22">
-        <f>D10-D17</f>
+        <f t="shared" si="5"/>
         <v>-1315000</v>
       </c>
       <c r="E18" s="22">
-        <f>E10-E17</f>
+        <f t="shared" si="5"/>
         <v>-1647500</v>
       </c>
       <c r="F18" s="22">
-        <f>F10-F17</f>
+        <f t="shared" si="5"/>
         <v>-1980000</v>
       </c>
       <c r="G18" s="22">
-        <f>G10-G17</f>
-        <v>-1837500</v>
+        <f t="shared" si="5"/>
+        <v>-1867300</v>
       </c>
       <c r="H18" s="22">
-        <f>H10-H17</f>
-        <v>-2120000</v>
+        <f t="shared" si="5"/>
+        <v>-2149800</v>
       </c>
       <c r="I18" s="22">
-        <f>I10-I17</f>
-        <v>-2362500</v>
+        <f t="shared" si="5"/>
+        <v>-2392300</v>
       </c>
       <c r="J18" s="22">
-        <f>J10-J17</f>
-        <v>-2362500</v>
+        <f t="shared" si="5"/>
+        <v>-2392300</v>
       </c>
       <c r="K18" s="22">
-        <f>K10-K17</f>
-        <v>-2362500</v>
+        <f t="shared" si="5"/>
+        <v>-2392300</v>
       </c>
       <c r="L18" s="22">
-        <f>L10-L17</f>
-        <v>-2312500</v>
+        <f t="shared" si="5"/>
+        <v>-2342300</v>
       </c>
       <c r="M18" s="22">
-        <f>M10-M17</f>
-        <v>-2262500</v>
+        <f t="shared" si="5"/>
+        <v>-2292300</v>
       </c>
       <c r="N18" s="22">
-        <f>N10-N17</f>
-        <v>-2212500</v>
+        <f t="shared" si="5"/>
+        <v>-2242300</v>
       </c>
       <c r="O18" s="22">
-        <f>O10-O17</f>
-        <v>-2122500</v>
+        <f t="shared" si="5"/>
+        <v>-2152300</v>
       </c>
       <c r="P18" s="22">
-        <f>P10-P17</f>
-        <v>-2072500</v>
+        <f t="shared" si="5"/>
+        <v>-2102300</v>
       </c>
       <c r="Q18" s="22">
-        <f>Q10-Q17</f>
-        <v>-2022500</v>
+        <f t="shared" si="5"/>
+        <v>-2052300</v>
       </c>
       <c r="R18" s="22">
-        <f>R10-R17</f>
-        <v>-1972500</v>
+        <f t="shared" si="5"/>
+        <v>-2002300</v>
       </c>
       <c r="S18" s="22">
-        <f>S10-S17</f>
-        <v>-1882500</v>
+        <f t="shared" si="5"/>
+        <v>-1912300</v>
       </c>
       <c r="T18" s="22">
-        <f>T10-T17</f>
-        <v>-1832500</v>
+        <f t="shared" si="5"/>
+        <v>-1862300</v>
       </c>
       <c r="U18" s="22">
-        <f>U10-U17</f>
-        <v>-1907500</v>
+        <f t="shared" si="5"/>
+        <v>-1967100</v>
       </c>
       <c r="V18" s="22"/>
     </row>
@@ -2028,10 +2031,10 @@
       <c r="D20" s="33">
         <v>0.3</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="23">
         <f>B18</f>
         <v>-650000</v>
@@ -2041,17 +2044,17 @@
       <c r="C21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="34">
         <f>NPV(D20,H21,H22)</f>
-        <v>-2946005.9171597632</v>
-      </c>
-      <c r="F21" s="34" t="s">
+        <v>-3004195.2662721891</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="23">
         <f>J2</f>
-        <v>-2362500</v>
+        <v>-2392300</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2062,13 +2065,18 @@
         <f>IRR(H20:H22)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="24">
         <f>V2</f>
-        <v>-1907500</v>
+        <v>-1967100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="M26" s="43">
+        <v>171535</v>
       </c>
     </row>
   </sheetData>
@@ -2083,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2178,11 +2186,11 @@
         <v>-650000</v>
       </c>
       <c r="C2" s="9">
-        <f>B19</f>
+        <f>B18</f>
         <v>-650000</v>
       </c>
       <c r="D2" s="9">
-        <f t="shared" ref="D2:T2" si="0">C19</f>
+        <f t="shared" ref="D2:T2" si="0">C18</f>
         <v>-982500</v>
       </c>
       <c r="E2" s="9">
@@ -2199,63 +2207,63 @@
       </c>
       <c r="H2" s="9">
         <f t="shared" si="0"/>
-        <v>-37500</v>
+        <v>-67300</v>
       </c>
       <c r="I2" s="9">
         <f t="shared" si="0"/>
-        <v>-250000</v>
+        <v>-279800</v>
       </c>
       <c r="J2" s="9">
         <f t="shared" si="0"/>
-        <v>-302500</v>
+        <v>-332300</v>
       </c>
       <c r="K2" s="9">
         <f>J2</f>
-        <v>-302500</v>
+        <v>-332300</v>
       </c>
       <c r="L2" s="9">
         <f>K2</f>
-        <v>-302500</v>
+        <v>-332300</v>
       </c>
       <c r="M2" s="9">
         <f t="shared" si="0"/>
-        <v>-182500</v>
+        <v>-212300</v>
       </c>
       <c r="N2" s="9">
         <f t="shared" si="0"/>
-        <v>-62500</v>
+        <v>-92300</v>
       </c>
       <c r="O2" s="9">
         <f t="shared" si="0"/>
-        <v>57500</v>
+        <v>27700</v>
       </c>
       <c r="P2" s="9">
         <f t="shared" si="0"/>
-        <v>337500</v>
+        <v>307700</v>
       </c>
       <c r="Q2" s="9">
         <f t="shared" si="0"/>
-        <v>457500</v>
+        <v>427700</v>
       </c>
       <c r="R2" s="9">
         <f t="shared" si="0"/>
-        <v>577500</v>
+        <v>547700</v>
       </c>
       <c r="S2" s="9">
         <f t="shared" si="0"/>
-        <v>697500</v>
+        <v>667700</v>
       </c>
       <c r="T2" s="9">
         <f t="shared" si="0"/>
-        <v>977500</v>
+        <v>947700</v>
       </c>
       <c r="U2" s="9">
-        <f t="shared" ref="U2:V2" si="1">T19</f>
-        <v>1097500</v>
+        <f t="shared" ref="U2:V2" si="1">T18</f>
+        <v>1067700</v>
       </c>
       <c r="V2" s="9">
         <f t="shared" si="1"/>
-        <v>1092500</v>
+        <v>1032900</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2281,12 +2289,12 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="41"/>
+      <c r="U3" s="36"/>
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
@@ -2314,7 +2322,7 @@
     </row>
     <row r="5" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -2364,7 +2372,7 @@
     </row>
     <row r="6" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -2392,7 +2400,7 @@
     </row>
     <row r="7" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -2424,7 +2432,7 @@
     </row>
     <row r="8" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -2473,249 +2481,265 @@
       <c r="V8" s="16"/>
     </row>
     <row r="9" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="16"/>
+      <c r="A9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19">
+        <f>SUM(B4:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="19">
+        <f>SUM(C4:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <f>SUM(D4:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <f>SUM(E4:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <f>SUM(F4:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <f>SUM(G4:G8)</f>
+        <v>2400000</v>
+      </c>
+      <c r="H9" s="19">
+        <f>SUM(H4:H8)</f>
+        <v>120000</v>
+      </c>
+      <c r="I9" s="19">
+        <f>SUM(I4:I8)</f>
+        <v>280000</v>
+      </c>
+      <c r="J9" s="19">
+        <f>SUM(J4:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <f>SUM(K4:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <f>SUM(L4:L8)</f>
+        <v>120000</v>
+      </c>
+      <c r="M9" s="19">
+        <f>SUM(M4:M8)</f>
+        <v>120000</v>
+      </c>
+      <c r="N9" s="19">
+        <f>SUM(N4:N8)</f>
+        <v>120000</v>
+      </c>
+      <c r="O9" s="19">
+        <f>SUM(O4:O8)</f>
+        <v>280000</v>
+      </c>
+      <c r="P9" s="19">
+        <f>SUM(P4:P8)</f>
+        <v>120000</v>
+      </c>
+      <c r="Q9" s="19">
+        <f>SUM(Q4:Q8)</f>
+        <v>120000</v>
+      </c>
+      <c r="R9" s="19">
+        <f>SUM(R4:R8)</f>
+        <v>120000</v>
+      </c>
+      <c r="S9" s="19">
+        <f>SUM(S4:S8)</f>
+        <v>280000</v>
+      </c>
+      <c r="T9" s="19">
+        <f>SUM(T4:T8)</f>
+        <v>120000</v>
+      </c>
+      <c r="U9" s="19">
+        <f>SUM(U4:U8)</f>
+        <v>120000</v>
+      </c>
+      <c r="V9" s="19">
+        <f>SUM(V4:V8)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19">
-        <f>SUM(B4:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="19">
-        <f t="shared" ref="C10:I10" si="2">SUM(C4:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <f t="shared" si="2"/>
-        <v>2400000</v>
-      </c>
-      <c r="H10" s="19">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="I10" s="19">
-        <f t="shared" si="2"/>
-        <v>280000</v>
-      </c>
-      <c r="J10" s="19">
-        <f t="shared" ref="J10:V10" si="3">SUM(J4:J9)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="19">
-        <f>SUM(L4:L9)</f>
-        <v>120000</v>
-      </c>
-      <c r="M10" s="19">
-        <f>SUM(M4:M9)</f>
-        <v>120000</v>
-      </c>
-      <c r="N10" s="19">
-        <f>SUM(N4:N9)</f>
-        <v>120000</v>
-      </c>
-      <c r="O10" s="19">
-        <f>SUM(O4:O9)</f>
-        <v>280000</v>
-      </c>
-      <c r="P10" s="19">
-        <f t="shared" si="3"/>
-        <v>120000</v>
-      </c>
-      <c r="Q10" s="19">
-        <f t="shared" si="3"/>
-        <v>120000</v>
-      </c>
-      <c r="R10" s="19">
-        <f t="shared" si="3"/>
-        <v>120000</v>
-      </c>
-      <c r="S10" s="19">
-        <f t="shared" si="3"/>
-        <v>280000</v>
-      </c>
-      <c r="T10" s="19">
-        <f t="shared" si="3"/>
-        <v>120000</v>
-      </c>
-      <c r="U10" s="19">
-        <f t="shared" si="3"/>
-        <v>120000</v>
-      </c>
-      <c r="V10" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="20">
+        <f>SUM(B2+B9)</f>
+        <v>-650000</v>
+      </c>
+      <c r="C10" s="20">
+        <f>SUM(C2+C9)</f>
+        <v>-650000</v>
+      </c>
+      <c r="D10" s="20">
+        <f>SUM(D2+D9)</f>
+        <v>-982500</v>
+      </c>
+      <c r="E10" s="20">
+        <f>SUM(E2+E9)</f>
+        <v>-1315000</v>
+      </c>
+      <c r="F10" s="20">
+        <f>SUM(F2+F9)</f>
+        <v>-1647500</v>
+      </c>
+      <c r="G10" s="20">
+        <f>SUM(G2+G9)</f>
+        <v>420000</v>
+      </c>
+      <c r="H10" s="20">
+        <f>SUM(H2+H9)</f>
+        <v>52700</v>
+      </c>
+      <c r="I10" s="20">
+        <f>SUM(I2+I9)</f>
+        <v>200</v>
+      </c>
+      <c r="J10" s="20">
+        <f>SUM(J2+J9)</f>
+        <v>-332300</v>
+      </c>
+      <c r="K10" s="20">
+        <f>SUM(K2+K9)</f>
+        <v>-332300</v>
+      </c>
+      <c r="L10" s="20">
+        <f>SUM(L2+L9)</f>
+        <v>-212300</v>
+      </c>
+      <c r="M10" s="20">
+        <f>SUM(M2+M9)</f>
+        <v>-92300</v>
+      </c>
+      <c r="N10" s="20">
+        <f>SUM(N2+N9)</f>
+        <v>27700</v>
+      </c>
+      <c r="O10" s="20">
+        <f>SUM(O2+O9)</f>
+        <v>307700</v>
+      </c>
+      <c r="P10" s="20">
+        <f>SUM(P2+P9)</f>
+        <v>427700</v>
+      </c>
+      <c r="Q10" s="20">
+        <f>SUM(Q2+Q9)</f>
+        <v>547700</v>
+      </c>
+      <c r="R10" s="20">
+        <f>SUM(R2+R9)</f>
+        <v>667700</v>
+      </c>
+      <c r="S10" s="20">
+        <f>SUM(S2+S9)</f>
+        <v>947700</v>
+      </c>
+      <c r="T10" s="20">
+        <f>SUM(T2+T9)</f>
+        <v>1067700</v>
+      </c>
+      <c r="U10" s="20">
+        <f>SUM(U2+U9)</f>
+        <v>1187700</v>
+      </c>
+      <c r="V10" s="20">
+        <f>SUM(V2+V9)</f>
+        <v>1032900</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20">
-        <f t="shared" ref="B11:V11" si="4">SUM(B2+B10)</f>
-        <v>-650000</v>
-      </c>
-      <c r="C11" s="20">
-        <f t="shared" si="4"/>
-        <v>-650000</v>
-      </c>
-      <c r="D11" s="20">
-        <f t="shared" si="4"/>
-        <v>-982500</v>
-      </c>
-      <c r="E11" s="20">
-        <f t="shared" si="4"/>
-        <v>-1315000</v>
-      </c>
-      <c r="F11" s="20">
-        <f t="shared" si="4"/>
-        <v>-1647500</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" si="4"/>
-        <v>420000</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" si="4"/>
-        <v>82500</v>
-      </c>
-      <c r="I11" s="20">
-        <f t="shared" si="4"/>
-        <v>30000</v>
-      </c>
-      <c r="J11" s="20">
-        <f t="shared" si="4"/>
-        <v>-302500</v>
-      </c>
-      <c r="K11" s="20">
-        <f t="shared" si="4"/>
-        <v>-302500</v>
-      </c>
-      <c r="L11" s="20">
-        <f t="shared" si="4"/>
-        <v>-182500</v>
-      </c>
-      <c r="M11" s="20">
-        <f t="shared" si="4"/>
-        <v>-62500</v>
-      </c>
-      <c r="N11" s="20">
-        <f t="shared" si="4"/>
-        <v>57500</v>
-      </c>
-      <c r="O11" s="20">
-        <f t="shared" si="4"/>
-        <v>337500</v>
-      </c>
-      <c r="P11" s="20">
-        <f t="shared" si="4"/>
-        <v>457500</v>
-      </c>
-      <c r="Q11" s="20">
-        <f t="shared" si="4"/>
-        <v>577500</v>
-      </c>
-      <c r="R11" s="20">
-        <f t="shared" si="4"/>
-        <v>697500</v>
-      </c>
-      <c r="S11" s="20">
-        <f t="shared" si="4"/>
-        <v>977500</v>
-      </c>
-      <c r="T11" s="20">
-        <f t="shared" si="4"/>
-        <v>1097500</v>
-      </c>
-      <c r="U11" s="20">
-        <f t="shared" ref="U11" si="5">SUM(U2+U10)</f>
-        <v>1217500</v>
-      </c>
-      <c r="V11" s="20">
-        <f t="shared" si="4"/>
-        <v>1092500</v>
-      </c>
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
+      <c r="A12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
+        <v>154800</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16">
+        <v>154800</v>
+      </c>
+      <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="C13" s="16">
+        <v>30000</v>
+      </c>
+      <c r="D13" s="16">
+        <v>30000</v>
+      </c>
+      <c r="E13" s="16">
+        <v>30000</v>
+      </c>
+      <c r="F13" s="16">
+        <v>30000</v>
+      </c>
       <c r="G13" s="16">
-        <v>125000</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+        <v>30000</v>
+      </c>
+      <c r="H13" s="16">
+        <v>30000</v>
+      </c>
+      <c r="I13" s="16">
+        <v>30000</v>
+      </c>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
       <c r="L13" s="16"/>
@@ -2727,9 +2751,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
-      <c r="U13" s="16">
-        <v>125000</v>
-      </c>
+      <c r="U13" s="16"/>
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2738,25 +2760,25 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="16">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="D14" s="16">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="16">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="F14" s="16">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G14" s="16">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="H14" s="16">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="I14" s="16">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
@@ -2774,29 +2796,29 @@
     </row>
     <row r="15" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="16">
-        <v>2500</v>
+        <v>300000</v>
       </c>
       <c r="D15" s="16">
-        <v>2500</v>
+        <v>300000</v>
       </c>
       <c r="E15" s="16">
-        <v>2500</v>
+        <v>300000</v>
       </c>
       <c r="F15" s="16">
-        <v>2500</v>
+        <v>300000</v>
       </c>
       <c r="G15" s="16">
-        <v>2500</v>
+        <v>300000</v>
       </c>
       <c r="H15" s="16">
-        <v>2500</v>
+        <v>300000</v>
       </c>
       <c r="I15" s="16">
-        <v>2500</v>
+        <v>300000</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
@@ -2813,391 +2835,351 @@
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16">
-        <v>300000</v>
-      </c>
-      <c r="D16" s="16">
-        <v>300000</v>
-      </c>
-      <c r="E16" s="16">
-        <v>300000</v>
-      </c>
-      <c r="F16" s="16">
-        <v>300000</v>
-      </c>
-      <c r="G16" s="16">
-        <v>300000</v>
-      </c>
-      <c r="H16" s="16">
-        <v>300000</v>
-      </c>
-      <c r="I16" s="16">
-        <v>300000</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="20">
+        <f t="shared" ref="B16:V16" si="2">SUM(B12:B15)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" si="2"/>
+        <v>332500</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="2"/>
+        <v>332500</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="2"/>
+        <v>332500</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="2"/>
+        <v>332500</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="2"/>
+        <v>487300</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="2"/>
+        <v>332500</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" si="2"/>
+        <v>332500</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="2"/>
+        <v>154800</v>
+      </c>
+      <c r="V16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="20">
-        <f>SUM(B13:B16)</f>
+        <f t="shared" ref="B17:V17" si="3">SUM(B16:B16)</f>
         <v>0</v>
       </c>
       <c r="C17" s="20">
-        <f>SUM(C13:C16)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="D17" s="20">
-        <f>SUM(D13:D16)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="E17" s="20">
-        <f>SUM(E13:E16)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="F17" s="20">
-        <f>SUM(F13:F16)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="G17" s="20">
-        <f>SUM(G13:G16)</f>
-        <v>457500</v>
+        <f t="shared" si="3"/>
+        <v>487300</v>
       </c>
       <c r="H17" s="20">
-        <f>SUM(H13:H16)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="I17" s="20">
-        <f>SUM(I13:I16)</f>
+        <f t="shared" si="3"/>
         <v>332500</v>
       </c>
       <c r="J17" s="20">
-        <f>SUM(J13:J16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="20">
-        <f>SUM(K13:K16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17" s="20">
-        <f>SUM(L13:L16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M17" s="20">
-        <f>SUM(M13:M16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N17" s="20">
-        <f>SUM(N13:N16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="20">
-        <f>SUM(O13:O16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P17" s="20">
-        <f>SUM(P13:P16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q17" s="20">
-        <f>SUM(Q13:Q16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R17" s="20">
-        <f>SUM(R13:R16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S17" s="20">
-        <f>SUM(S13:S16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T17" s="20">
-        <f>SUM(T13:T16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U17" s="20">
-        <f>SUM(U13:U16)</f>
-        <v>125000</v>
+        <f t="shared" ref="U17" si="4">SUM(U16:U16)</f>
+        <v>154800</v>
       </c>
       <c r="V17" s="20">
-        <f>SUM(V13:V16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="20">
-        <f t="shared" ref="B18:V18" si="6">SUM(B17:B17)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="20">
-        <f t="shared" si="6"/>
-        <v>332500</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="6"/>
-        <v>332500</v>
-      </c>
-      <c r="E18" s="20">
-        <f t="shared" si="6"/>
-        <v>332500</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="6"/>
-        <v>332500</v>
-      </c>
-      <c r="G18" s="20">
-        <f t="shared" si="6"/>
-        <v>457500</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" si="6"/>
-        <v>332500</v>
-      </c>
-      <c r="I18" s="20">
-        <f t="shared" si="6"/>
-        <v>332500</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="20">
-        <f t="shared" ref="U18" si="7">SUM(U17:U17)</f>
-        <v>125000</v>
-      </c>
-      <c r="V18" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="22">
-        <f>B2-B18</f>
+      <c r="B18" s="22">
+        <f>B2-B17</f>
         <v>-650000</v>
       </c>
-      <c r="C19" s="22">
-        <f>C11-C18</f>
+      <c r="C18" s="22">
+        <f t="shared" ref="C18:U18" si="5">C10-C17</f>
         <v>-982500</v>
       </c>
-      <c r="D19" s="22">
-        <f>D11-D18</f>
+      <c r="D18" s="22">
+        <f t="shared" si="5"/>
         <v>-1315000</v>
       </c>
-      <c r="E19" s="22">
-        <f>E11-E18</f>
+      <c r="E18" s="22">
+        <f t="shared" si="5"/>
         <v>-1647500</v>
       </c>
-      <c r="F19" s="22">
-        <f>F11-F18</f>
+      <c r="F18" s="22">
+        <f t="shared" si="5"/>
         <v>-1980000</v>
       </c>
-      <c r="G19" s="22">
-        <f>G11-G18</f>
-        <v>-37500</v>
-      </c>
-      <c r="H19" s="22">
-        <f>H11-H18</f>
-        <v>-250000</v>
-      </c>
-      <c r="I19" s="22">
-        <f>I11-I18</f>
-        <v>-302500</v>
-      </c>
-      <c r="J19" s="22">
-        <f>J11-J18</f>
-        <v>-302500</v>
-      </c>
-      <c r="K19" s="22">
-        <f>K11-K18</f>
-        <v>-302500</v>
-      </c>
-      <c r="L19" s="22">
-        <f>L11-L18</f>
-        <v>-182500</v>
-      </c>
-      <c r="M19" s="22">
-        <f>M11-M18</f>
-        <v>-62500</v>
-      </c>
-      <c r="N19" s="22">
-        <f>N11-N18</f>
-        <v>57500</v>
-      </c>
-      <c r="O19" s="22">
-        <f>O11-O18</f>
-        <v>337500</v>
-      </c>
-      <c r="P19" s="22">
-        <f>P11-P18</f>
-        <v>457500</v>
-      </c>
-      <c r="Q19" s="22">
-        <f>Q11-Q18</f>
-        <v>577500</v>
-      </c>
-      <c r="R19" s="22">
-        <f>R11-R18</f>
-        <v>697500</v>
-      </c>
-      <c r="S19" s="22">
-        <f>S11-S18</f>
-        <v>977500</v>
-      </c>
-      <c r="T19" s="22">
-        <f>T11-T18</f>
-        <v>1097500</v>
-      </c>
-      <c r="U19" s="22">
-        <f>U11-U18</f>
-        <v>1092500</v>
-      </c>
-      <c r="V19" s="22"/>
-    </row>
-    <row r="20" spans="1:22" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="G18" s="22">
+        <f t="shared" si="5"/>
+        <v>-67300</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="5"/>
+        <v>-279800</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="5"/>
+        <v>-332300</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="5"/>
+        <v>-332300</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="5"/>
+        <v>-332300</v>
+      </c>
+      <c r="L18" s="22">
+        <f t="shared" si="5"/>
+        <v>-212300</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="5"/>
+        <v>-92300</v>
+      </c>
+      <c r="N18" s="22">
+        <f t="shared" si="5"/>
+        <v>27700</v>
+      </c>
+      <c r="O18" s="22">
+        <f t="shared" si="5"/>
+        <v>307700</v>
+      </c>
+      <c r="P18" s="22">
+        <f t="shared" si="5"/>
+        <v>427700</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" si="5"/>
+        <v>547700</v>
+      </c>
+      <c r="R18" s="22">
+        <f t="shared" si="5"/>
+        <v>667700</v>
+      </c>
+      <c r="S18" s="22">
+        <f t="shared" si="5"/>
+        <v>947700</v>
+      </c>
+      <c r="T18" s="22">
+        <f t="shared" si="5"/>
+        <v>1067700</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" si="5"/>
+        <v>1032900</v>
+      </c>
+      <c r="V18" s="22"/>
+    </row>
+    <row r="19" spans="1:22" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="23">
+        <f>B18</f>
+        <v>-650000</v>
+      </c>
+    </row>
     <row r="21" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="34">
+        <f>NPV(D20,H21,H22)</f>
+        <v>355568.04733727808</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="38"/>
       <c r="H21" s="23">
-        <f>B19</f>
-        <v>-650000</v>
+        <f>J2</f>
+        <v>-332300</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="39">
-        <f>NPV(D21,H22,H23)</f>
-        <v>413757.39644970413</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="23">
-        <f>J2</f>
-        <v>-302500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="31">
-        <f>IRR(H21:H23)</f>
-        <v>8.4469391123901394E-2</v>
-      </c>
-      <c r="F23" s="35" t="s">
+      <c r="D22" s="31">
+        <f>IRR(H20:H22)</f>
+        <v>3.0625707843177086E-2</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="24">
+      <c r="G22" s="39"/>
+      <c r="H22" s="24">
         <f>V2</f>
-        <v>1092500</v>
+        <v>1032900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J23" s="44"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3225,46 +3207,46 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="27"/>
@@ -3272,134 +3254,134 @@
       <c r="H2" s="27"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="26"/>
       <c r="J4" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="36" t="s">
-        <v>51</v>
+      <c r="J5" s="40" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="37"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="37"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -3409,11 +3391,11 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="38"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -3422,34 +3404,34 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="26"/>
     </row>
@@ -3460,4 +3442,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9">
+        <v>-650000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="15">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="15">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="15">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="15">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="15">
+        <v>154800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="15">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentos/flujo de caja.xlsx
+++ b/Documentos/flujo de caja.xlsx
@@ -14,8 +14,9 @@
   <sheets>
     <sheet name="flujo 1 venta" sheetId="2" r:id="rId1"/>
     <sheet name="caso positivo 4 clientes" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
+    <sheet name="Factibilidad Economica" sheetId="6" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
   <si>
     <t>Costo del desarrollo</t>
   </si>
@@ -38,9 +39,6 @@
     <t>Aug-15</t>
   </si>
   <si>
-    <t>Dec-15</t>
-  </si>
-  <si>
     <t>Preinicio</t>
   </si>
   <si>
@@ -83,18 +81,6 @@
     <t>TIR</t>
   </si>
   <si>
-    <t>Total Arts1</t>
-  </si>
-  <si>
-    <t>Total Arts2</t>
-  </si>
-  <si>
-    <t>Total Arts1.</t>
-  </si>
-  <si>
-    <t>Total Arts2.</t>
-  </si>
-  <si>
     <t>Entregable</t>
   </si>
   <si>
@@ -222,6 +208,108 @@
   </si>
   <si>
     <t>http://www.bluehosting.cl/vps/</t>
+  </si>
+  <si>
+    <t>Tabla de Costos de insumos del desarrollo</t>
+  </si>
+  <si>
+    <t>ID PRODUCTO</t>
+  </si>
+  <si>
+    <t>INSUMOS / Productos o Servicios consumidos en el Desarrollo</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>COSTO Unidad</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>I-CD-001</t>
+  </si>
+  <si>
+    <t>Viajes Para Reuniones</t>
+  </si>
+  <si>
+    <t>I-CD-002</t>
+  </si>
+  <si>
+    <t>I-CD-003</t>
+  </si>
+  <si>
+    <t>I-CD-004</t>
+  </si>
+  <si>
+    <t>Sueldos (Mensual) (4050 x hrs)</t>
+  </si>
+  <si>
+    <t>Licencia Sublime Text</t>
+  </si>
+  <si>
+    <t>Gastos Administrativos</t>
+  </si>
+  <si>
+    <t>COSTO DIRECTO INSUMOS</t>
+  </si>
+  <si>
+    <t>Tabla de costos de Implementación</t>
+  </si>
+  <si>
+    <t>INSUMOS / Productos o Servicios consumidos en la IMPLEMENTACION</t>
+  </si>
+  <si>
+    <t>I-CI-001</t>
+  </si>
+  <si>
+    <t>Mano de Obra</t>
+  </si>
+  <si>
+    <t>I-CI-002</t>
+  </si>
+  <si>
+    <t>Hosting Profesional 12 GB (Anual)</t>
+  </si>
+  <si>
+    <t>I-CI-003</t>
+  </si>
+  <si>
+    <t>Computador (Si es que requiere)</t>
+  </si>
+  <si>
+    <t>Tabla de costos de Mantención de servicio</t>
+  </si>
+  <si>
+    <t>I-CM-001</t>
+  </si>
+  <si>
+    <t>Mantención Sistema</t>
+  </si>
+  <si>
+    <t>I-CM-002</t>
+  </si>
+  <si>
+    <t>COSTO DIRECTO INSUMOS MANTENCION DEL SERVICIO</t>
+  </si>
+  <si>
+    <t>sin computador</t>
+  </si>
+  <si>
+    <t>con computador</t>
+  </si>
+  <si>
+    <t>Total 1er periodo.</t>
+  </si>
+  <si>
+    <t>Total 1er periodo</t>
+  </si>
+  <si>
+    <t>Total 2do periodo</t>
+  </si>
+  <si>
+    <t>Total 2do periodo.</t>
   </si>
 </sst>
 </file>
@@ -232,7 +320,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +397,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,8 +486,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -609,12 +742,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,6 +981,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,8 +998,94 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="14" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1024,15 +1370,17 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1043,157 +1391,157 @@
         <v>1</v>
       </c>
       <c r="C1" s="8">
-        <v>42005</v>
+        <v>42217</v>
       </c>
       <c r="D1" s="8">
-        <v>42186</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
+        <v>42248</v>
+      </c>
+      <c r="E1" s="8">
+        <v>42278</v>
       </c>
       <c r="F1" s="8">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="G1" s="8">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="H1" s="8">
-        <v>42309</v>
-      </c>
-      <c r="I1" s="7" t="s">
+        <v>42370</v>
+      </c>
+      <c r="I1" s="8">
+        <v>42401</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="8">
+        <v>42430</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8">
-        <v>42370</v>
-      </c>
-      <c r="M1" s="8">
-        <v>42401</v>
-      </c>
       <c r="N1" s="8">
-        <v>42430</v>
-      </c>
-      <c r="O1" s="7" t="s">
+        <v>42491</v>
+      </c>
+      <c r="O1" s="8">
+        <v>42522</v>
+      </c>
+      <c r="P1" s="8">
+        <v>42552</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="8">
-        <v>42491</v>
-      </c>
-      <c r="Q1" s="8">
-        <v>42522</v>
-      </c>
       <c r="R1" s="8">
-        <v>42552</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>6</v>
+        <v>42614</v>
+      </c>
+      <c r="S1" s="8">
+        <v>42644</v>
       </c>
       <c r="T1" s="8">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="U1" s="8">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9">
-        <v>-650000</v>
+        <v>-3000000</v>
       </c>
       <c r="C2" s="9">
         <f>B18</f>
-        <v>-650000</v>
+        <v>-3000000</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:V2" si="0">C18</f>
-        <v>-982500</v>
+        <v>-3070000</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" si="0"/>
-        <v>-1315000</v>
+        <v>-3140000</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" si="0"/>
-        <v>-1647500</v>
+        <v>-3210000</v>
       </c>
       <c r="G2" s="9">
         <f t="shared" si="0"/>
-        <v>-1980000</v>
+        <v>-3280000</v>
       </c>
       <c r="H2" s="9">
         <f t="shared" si="0"/>
-        <v>-1867300</v>
+        <v>-2304800</v>
       </c>
       <c r="I2" s="9">
         <f t="shared" si="0"/>
-        <v>-2149800</v>
+        <v>-2864800</v>
       </c>
       <c r="J2" s="9">
         <f t="shared" si="0"/>
-        <v>-2392300</v>
+        <v>-3374800</v>
       </c>
       <c r="K2" s="9">
         <f>J2</f>
-        <v>-2392300</v>
+        <v>-3374800</v>
       </c>
       <c r="L2" s="9">
         <f>K2</f>
-        <v>-2392300</v>
+        <v>-3374800</v>
       </c>
       <c r="M2" s="9">
         <f t="shared" si="0"/>
-        <v>-2342300</v>
+        <v>-3864800</v>
       </c>
       <c r="N2" s="9">
         <f t="shared" si="0"/>
-        <v>-2292300</v>
+        <v>-4354800</v>
       </c>
       <c r="O2" s="9">
         <f t="shared" si="0"/>
-        <v>-2242300</v>
+        <v>-4844800</v>
       </c>
       <c r="P2" s="9">
         <f t="shared" si="0"/>
-        <v>-2152300</v>
+        <v>-5284800</v>
       </c>
       <c r="Q2" s="9">
         <f t="shared" si="0"/>
-        <v>-2102300</v>
+        <v>-5774800</v>
       </c>
       <c r="R2" s="9">
         <f t="shared" si="0"/>
-        <v>-2052300</v>
+        <v>-6264800</v>
       </c>
       <c r="S2" s="9">
         <f t="shared" si="0"/>
-        <v>-2002300</v>
+        <v>-6754800</v>
       </c>
       <c r="T2" s="9">
         <f t="shared" si="0"/>
-        <v>-1912300</v>
+        <v>-7194800</v>
       </c>
       <c r="U2" s="9">
         <f t="shared" si="0"/>
-        <v>-1862300</v>
+        <v>-7684800</v>
       </c>
       <c r="V2" s="9">
         <f t="shared" si="0"/>
-        <v>-1967100</v>
+        <v>-8329600</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1219,7 +1567,7 @@
     </row>
     <row r="4" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
@@ -1227,7 +1575,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16">
-        <v>400000</v>
+        <v>1600000</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1247,7 +1595,7 @@
     </row>
     <row r="5" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -1256,48 +1604,48 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="I5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="13"/>
       <c r="L5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="M5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="N5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="O5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="P5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="Q5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="R5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="S5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="T5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="U5" s="16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="V5" s="16"/>
     </row>
     <row r="6" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1325,7 +1673,7 @@
     </row>
     <row r="7" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1335,7 +1683,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="13"/>
@@ -1343,13 +1691,13 @@
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
@@ -1357,7 +1705,7 @@
     </row>
     <row r="8" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -1407,7 +1755,7 @@
     </row>
     <row r="9" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ref="B9:V9" si="1">SUM(B4:B8)</f>
@@ -1431,15 +1779,15 @@
       </c>
       <c r="G9" s="19">
         <f t="shared" si="1"/>
-        <v>600000</v>
+        <v>1800000</v>
       </c>
       <c r="H9" s="19">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>160000</v>
       </c>
       <c r="J9" s="19">
         <f t="shared" si="1"/>
@@ -1451,43 +1799,43 @@
       </c>
       <c r="L9" s="19">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="M9" s="19">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="N9" s="19">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="O9" s="19">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>160000</v>
       </c>
       <c r="P9" s="19">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="S9" s="19">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>160000</v>
       </c>
       <c r="T9" s="19">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="U9" s="19">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="V9" s="19">
         <f t="shared" si="1"/>
@@ -1496,96 +1844,96 @@
     </row>
     <row r="10" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="20">
         <f t="shared" ref="B10:V10" si="2">SUM(B2+B9)</f>
-        <v>-650000</v>
+        <v>-3000000</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" si="2"/>
-        <v>-650000</v>
+        <v>-3000000</v>
       </c>
       <c r="D10" s="20">
         <f t="shared" si="2"/>
-        <v>-982500</v>
+        <v>-3070000</v>
       </c>
       <c r="E10" s="20">
         <f t="shared" si="2"/>
-        <v>-1315000</v>
+        <v>-3140000</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" si="2"/>
-        <v>-1647500</v>
+        <v>-3210000</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="2"/>
-        <v>-1380000</v>
+        <v>-1480000</v>
       </c>
       <c r="H10" s="20">
         <f t="shared" si="2"/>
-        <v>-1817300</v>
+        <v>-2194800</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="2"/>
-        <v>-2059800</v>
+        <v>-2704800</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" si="2"/>
-        <v>-2392300</v>
+        <v>-3374800</v>
       </c>
       <c r="K10" s="20">
         <f t="shared" si="2"/>
-        <v>-2392300</v>
+        <v>-3374800</v>
       </c>
       <c r="L10" s="20">
         <f t="shared" si="2"/>
-        <v>-2342300</v>
+        <v>-3264800</v>
       </c>
       <c r="M10" s="20">
         <f t="shared" si="2"/>
-        <v>-2292300</v>
+        <v>-3754800</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>-2242300</v>
+        <v>-4244800</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" si="2"/>
-        <v>-2152300</v>
+        <v>-4684800</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="2"/>
-        <v>-2102300</v>
+        <v>-5174800</v>
       </c>
       <c r="Q10" s="20">
         <f t="shared" si="2"/>
-        <v>-2052300</v>
+        <v>-5664800</v>
       </c>
       <c r="R10" s="20">
         <f t="shared" si="2"/>
-        <v>-2002300</v>
+        <v>-6154800</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="2"/>
-        <v>-1912300</v>
+        <v>-6594800</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="2"/>
-        <v>-1862300</v>
+        <v>-7084800</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="2"/>
-        <v>-1812300</v>
+        <v>-7574800</v>
       </c>
       <c r="V10" s="20">
         <f t="shared" si="2"/>
-        <v>-1967100</v>
+        <v>-8329600</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1611,7 +1959,7 @@
     </row>
     <row r="12" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -1641,29 +1989,29 @@
     </row>
     <row r="13" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="D13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="E13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="I13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
@@ -1681,29 +2029,29 @@
     </row>
     <row r="14" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="D14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="E14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="H14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="I14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
@@ -1721,47 +2069,59 @@
     </row>
     <row r="15" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="16">
-        <v>300000</v>
-      </c>
-      <c r="D15" s="16">
-        <v>300000</v>
-      </c>
-      <c r="E15" s="16">
-        <v>300000</v>
-      </c>
-      <c r="F15" s="16">
-        <v>300000</v>
-      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="16">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="H15" s="16">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="I15" s="16">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
+      <c r="L15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="M15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="N15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="O15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="P15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="R15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="S15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="T15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="U15" s="16">
+        <v>600000</v>
+      </c>
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="20">
         <f t="shared" ref="B16:V16" si="3">SUM(B12:B15)</f>
@@ -1769,31 +2129,31 @@
       </c>
       <c r="C16" s="20">
         <f t="shared" si="3"/>
-        <v>332500</v>
+        <v>70000</v>
       </c>
       <c r="D16" s="20">
         <f t="shared" si="3"/>
-        <v>332500</v>
+        <v>70000</v>
       </c>
       <c r="E16" s="20">
         <f t="shared" si="3"/>
-        <v>332500</v>
+        <v>70000</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" si="3"/>
-        <v>332500</v>
+        <v>70000</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="3"/>
-        <v>487300</v>
+        <v>824800</v>
       </c>
       <c r="H16" s="20">
         <f t="shared" si="3"/>
-        <v>332500</v>
+        <v>670000</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="3"/>
-        <v>332500</v>
+        <v>670000</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="3"/>
@@ -1805,43 +2165,43 @@
       </c>
       <c r="L16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="M16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="O16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Q16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="R16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="T16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U16" s="20">
         <f t="shared" si="3"/>
-        <v>154800</v>
+        <v>754800</v>
       </c>
       <c r="V16" s="20">
         <f t="shared" si="3"/>
@@ -1850,7 +2210,7 @@
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="20">
         <f t="shared" ref="B17:V17" si="4">SUM(B16:B16)</f>
@@ -1858,31 +2218,31 @@
       </c>
       <c r="C17" s="20">
         <f t="shared" si="4"/>
-        <v>332500</v>
+        <v>70000</v>
       </c>
       <c r="D17" s="20">
         <f t="shared" si="4"/>
-        <v>332500</v>
+        <v>70000</v>
       </c>
       <c r="E17" s="20">
         <f t="shared" si="4"/>
-        <v>332500</v>
+        <v>70000</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" si="4"/>
-        <v>332500</v>
+        <v>70000</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="4"/>
-        <v>487300</v>
+        <v>824800</v>
       </c>
       <c r="H17" s="20">
         <f t="shared" si="4"/>
-        <v>332500</v>
+        <v>670000</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="4"/>
-        <v>332500</v>
+        <v>670000</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" si="4"/>
@@ -1894,43 +2254,43 @@
       </c>
       <c r="L17" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="O17" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Q17" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="R17" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="T17" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U17" s="20">
         <f t="shared" si="4"/>
-        <v>154800</v>
+        <v>754800</v>
       </c>
       <c r="V17" s="20">
         <f t="shared" si="4"/>
@@ -1939,143 +2299,143 @@
     </row>
     <row r="18" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="22">
         <f>B2-B17</f>
-        <v>-650000</v>
+        <v>-3000000</v>
       </c>
       <c r="C18" s="22">
         <f t="shared" ref="C18:U18" si="5">C10-C17</f>
-        <v>-982500</v>
+        <v>-3070000</v>
       </c>
       <c r="D18" s="22">
         <f t="shared" si="5"/>
-        <v>-1315000</v>
+        <v>-3140000</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="5"/>
-        <v>-1647500</v>
+        <v>-3210000</v>
       </c>
       <c r="F18" s="22">
         <f t="shared" si="5"/>
-        <v>-1980000</v>
+        <v>-3280000</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" si="5"/>
-        <v>-1867300</v>
+        <v>-2304800</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="5"/>
-        <v>-2149800</v>
+        <v>-2864800</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="5"/>
-        <v>-2392300</v>
+        <v>-3374800</v>
       </c>
       <c r="J18" s="22">
         <f t="shared" si="5"/>
-        <v>-2392300</v>
+        <v>-3374800</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="5"/>
-        <v>-2392300</v>
+        <v>-3374800</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" si="5"/>
-        <v>-2342300</v>
+        <v>-3864800</v>
       </c>
       <c r="M18" s="22">
         <f t="shared" si="5"/>
-        <v>-2292300</v>
+        <v>-4354800</v>
       </c>
       <c r="N18" s="22">
         <f t="shared" si="5"/>
-        <v>-2242300</v>
+        <v>-4844800</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="5"/>
-        <v>-2152300</v>
+        <v>-5284800</v>
       </c>
       <c r="P18" s="22">
         <f t="shared" si="5"/>
-        <v>-2102300</v>
+        <v>-5774800</v>
       </c>
       <c r="Q18" s="22">
         <f t="shared" si="5"/>
-        <v>-2052300</v>
+        <v>-6264800</v>
       </c>
       <c r="R18" s="22">
         <f t="shared" si="5"/>
-        <v>-2002300</v>
+        <v>-6754800</v>
       </c>
       <c r="S18" s="22">
         <f t="shared" si="5"/>
-        <v>-1912300</v>
+        <v>-7194800</v>
       </c>
       <c r="T18" s="22">
         <f t="shared" si="5"/>
-        <v>-1862300</v>
+        <v>-7684800</v>
       </c>
       <c r="U18" s="22">
         <f t="shared" si="5"/>
-        <v>-1967100</v>
+        <v>-8329600</v>
       </c>
       <c r="V18" s="22"/>
     </row>
     <row r="19" spans="1:22" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="33">
         <v>0.3</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="23">
         <f>B18</f>
-        <v>-650000</v>
+        <v>-3000000</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="34">
         <f>NPV(D20,H21,H22)</f>
-        <v>-3004195.2662721891</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="38"/>
+        <v>-7524757.3964497047</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="40"/>
       <c r="H21" s="23">
         <f>J2</f>
-        <v>-2392300</v>
+        <v>-3374800</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="31" t="e">
         <f>IRR(H20:H22)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="39"/>
+      <c r="F22" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="41"/>
       <c r="H22" s="24">
         <f>V2</f>
-        <v>-1967100</v>
+        <v>-8329600</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="M26" s="43">
+      <c r="M26" s="38">
         <v>171535</v>
       </c>
     </row>
@@ -2094,18 +2454,16 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="7.7109375" style="1"/>
   </cols>
@@ -2117,158 +2475,158 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8">
-        <v>42005</v>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="8">
-        <v>42186</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
+        <v>42248</v>
+      </c>
+      <c r="E1" s="8">
+        <v>42278</v>
       </c>
       <c r="F1" s="8">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="G1" s="8">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="H1" s="8">
-        <v>42309</v>
-      </c>
-      <c r="I1" s="7" t="s">
+        <v>42370</v>
+      </c>
+      <c r="I1" s="8">
+        <v>42401</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="8">
+        <v>42430</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8">
-        <v>42370</v>
-      </c>
-      <c r="M1" s="8">
-        <v>42401</v>
-      </c>
       <c r="N1" s="8">
-        <v>42430</v>
-      </c>
-      <c r="O1" s="7" t="s">
+        <v>42491</v>
+      </c>
+      <c r="O1" s="8">
+        <v>42522</v>
+      </c>
+      <c r="P1" s="8">
+        <v>42552</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="8">
-        <v>42491</v>
-      </c>
-      <c r="Q1" s="8">
-        <v>42522</v>
-      </c>
       <c r="R1" s="8">
-        <v>42552</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>6</v>
+        <v>42614</v>
+      </c>
+      <c r="S1" s="8">
+        <v>42644</v>
       </c>
       <c r="T1" s="8">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="U1" s="8">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9">
-        <v>-650000</v>
+        <v>-3000000</v>
       </c>
       <c r="C2" s="9">
         <f>B18</f>
-        <v>-650000</v>
+        <v>-3000000</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:T2" si="0">C18</f>
-        <v>-982500</v>
+        <v>-3070000</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" si="0"/>
-        <v>-1315000</v>
+        <v>-3140000</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" si="0"/>
-        <v>-1647500</v>
+        <v>-3210000</v>
       </c>
       <c r="G2" s="9">
         <f t="shared" si="0"/>
-        <v>-1980000</v>
+        <v>-3280000</v>
       </c>
       <c r="H2" s="9">
         <f t="shared" si="0"/>
-        <v>-67300</v>
+        <v>3095200</v>
       </c>
       <c r="I2" s="9">
         <f t="shared" si="0"/>
-        <v>-279800</v>
+        <v>2865200</v>
       </c>
       <c r="J2" s="9">
         <f t="shared" si="0"/>
-        <v>-332300</v>
+        <v>2835200</v>
       </c>
       <c r="K2" s="9">
-        <f>J2</f>
-        <v>-332300</v>
+        <f>J18</f>
+        <v>2835200</v>
       </c>
       <c r="L2" s="9">
-        <f>K2</f>
-        <v>-332300</v>
+        <f>K18</f>
+        <v>2835200</v>
       </c>
       <c r="M2" s="9">
-        <f t="shared" si="0"/>
-        <v>-212300</v>
+        <f t="shared" ref="M2:V2" si="1">L18</f>
+        <v>2675200</v>
       </c>
       <c r="N2" s="9">
-        <f t="shared" si="0"/>
-        <v>-92300</v>
+        <f t="shared" si="1"/>
+        <v>2515200</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" si="0"/>
-        <v>27700</v>
+        <f t="shared" si="1"/>
+        <v>2355200</v>
       </c>
       <c r="P2" s="9">
-        <f t="shared" si="0"/>
-        <v>307700</v>
+        <f t="shared" si="1"/>
+        <v>2395200</v>
       </c>
       <c r="Q2" s="9">
-        <f t="shared" si="0"/>
-        <v>427700</v>
+        <f t="shared" si="1"/>
+        <v>2235200</v>
       </c>
       <c r="R2" s="9">
-        <f t="shared" si="0"/>
-        <v>547700</v>
+        <f t="shared" si="1"/>
+        <v>2075200</v>
       </c>
       <c r="S2" s="9">
-        <f t="shared" si="0"/>
-        <v>667700</v>
+        <f t="shared" si="1"/>
+        <v>1915200</v>
       </c>
       <c r="T2" s="9">
-        <f t="shared" si="0"/>
-        <v>947700</v>
+        <f t="shared" si="1"/>
+        <v>1955200</v>
       </c>
       <c r="U2" s="9">
-        <f t="shared" ref="U2:V2" si="1">T18</f>
-        <v>1067700</v>
+        <f t="shared" si="1"/>
+        <v>1795200</v>
       </c>
       <c r="V2" s="9">
         <f t="shared" si="1"/>
-        <v>1032900</v>
+        <v>1480400</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2294,7 +2652,7 @@
     </row>
     <row r="4" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
@@ -2302,7 +2660,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16">
-        <v>1600000</v>
+        <v>6400000</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -2322,7 +2680,7 @@
     </row>
     <row r="5" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -2331,48 +2689,48 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="I5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="13"/>
       <c r="L5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="M5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="N5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="O5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="P5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="Q5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="R5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="S5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="T5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="U5" s="16">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="V5" s="16"/>
     </row>
     <row r="6" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -2400,7 +2758,7 @@
     </row>
     <row r="7" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -2410,7 +2768,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="13"/>
@@ -2418,13 +2776,13 @@
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
@@ -2432,7 +2790,7 @@
     </row>
     <row r="8" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -2482,185 +2840,185 @@
     </row>
     <row r="9" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="19">
-        <f>SUM(B4:B8)</f>
+        <f t="shared" ref="B9:V9" si="2">SUM(B4:B8)</f>
         <v>0</v>
       </c>
       <c r="C9" s="19">
-        <f>SUM(C4:C8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D9" s="19">
-        <f>SUM(D4:D8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="19">
-        <f>SUM(E4:E8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9" s="19">
-        <f>SUM(F4:F8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="19">
-        <f>SUM(G4:G8)</f>
-        <v>2400000</v>
+        <f t="shared" si="2"/>
+        <v>7200000</v>
       </c>
       <c r="H9" s="19">
-        <f>SUM(H4:H8)</f>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>440000</v>
       </c>
       <c r="I9" s="19">
-        <f>SUM(I4:I8)</f>
-        <v>280000</v>
+        <f t="shared" si="2"/>
+        <v>640000</v>
       </c>
       <c r="J9" s="19">
-        <f>SUM(J4:J8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="19">
-        <f>SUM(K4:K8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="19">
-        <f>SUM(L4:L8)</f>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>440000</v>
       </c>
       <c r="M9" s="19">
-        <f>SUM(M4:M8)</f>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>440000</v>
       </c>
       <c r="N9" s="19">
-        <f>SUM(N4:N8)</f>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>440000</v>
       </c>
       <c r="O9" s="19">
-        <f>SUM(O4:O8)</f>
-        <v>280000</v>
+        <f t="shared" si="2"/>
+        <v>640000</v>
       </c>
       <c r="P9" s="19">
-        <f>SUM(P4:P8)</f>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>440000</v>
       </c>
       <c r="Q9" s="19">
-        <f>SUM(Q4:Q8)</f>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>440000</v>
       </c>
       <c r="R9" s="19">
-        <f>SUM(R4:R8)</f>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>440000</v>
       </c>
       <c r="S9" s="19">
-        <f>SUM(S4:S8)</f>
-        <v>280000</v>
+        <f t="shared" si="2"/>
+        <v>640000</v>
       </c>
       <c r="T9" s="19">
-        <f>SUM(T4:T8)</f>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>440000</v>
       </c>
       <c r="U9" s="19">
-        <f>SUM(U4:U8)</f>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>440000</v>
       </c>
       <c r="V9" s="19">
-        <f>SUM(V4:V8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="20">
-        <f>SUM(B2+B9)</f>
-        <v>-650000</v>
+        <f t="shared" ref="B10:V10" si="3">SUM(B2+B9)</f>
+        <v>-3000000</v>
       </c>
       <c r="C10" s="20">
-        <f>SUM(C2+C9)</f>
-        <v>-650000</v>
+        <f t="shared" si="3"/>
+        <v>-3000000</v>
       </c>
       <c r="D10" s="20">
-        <f>SUM(D2+D9)</f>
-        <v>-982500</v>
+        <f t="shared" si="3"/>
+        <v>-3070000</v>
       </c>
       <c r="E10" s="20">
-        <f>SUM(E2+E9)</f>
-        <v>-1315000</v>
+        <f t="shared" si="3"/>
+        <v>-3140000</v>
       </c>
       <c r="F10" s="20">
-        <f>SUM(F2+F9)</f>
-        <v>-1647500</v>
+        <f t="shared" si="3"/>
+        <v>-3210000</v>
       </c>
       <c r="G10" s="20">
-        <f>SUM(G2+G9)</f>
-        <v>420000</v>
+        <f t="shared" si="3"/>
+        <v>3920000</v>
       </c>
       <c r="H10" s="20">
-        <f>SUM(H2+H9)</f>
-        <v>52700</v>
+        <f t="shared" si="3"/>
+        <v>3535200</v>
       </c>
       <c r="I10" s="20">
-        <f>SUM(I2+I9)</f>
-        <v>200</v>
+        <f t="shared" si="3"/>
+        <v>3505200</v>
       </c>
       <c r="J10" s="20">
-        <f>SUM(J2+J9)</f>
-        <v>-332300</v>
+        <f t="shared" si="3"/>
+        <v>2835200</v>
       </c>
       <c r="K10" s="20">
-        <f>SUM(K2+K9)</f>
-        <v>-332300</v>
+        <f t="shared" si="3"/>
+        <v>2835200</v>
       </c>
       <c r="L10" s="20">
-        <f>SUM(L2+L9)</f>
-        <v>-212300</v>
+        <f t="shared" si="3"/>
+        <v>3275200</v>
       </c>
       <c r="M10" s="20">
-        <f>SUM(M2+M9)</f>
-        <v>-92300</v>
+        <f t="shared" si="3"/>
+        <v>3115200</v>
       </c>
       <c r="N10" s="20">
-        <f>SUM(N2+N9)</f>
-        <v>27700</v>
+        <f t="shared" si="3"/>
+        <v>2955200</v>
       </c>
       <c r="O10" s="20">
-        <f>SUM(O2+O9)</f>
-        <v>307700</v>
+        <f t="shared" si="3"/>
+        <v>2995200</v>
       </c>
       <c r="P10" s="20">
-        <f>SUM(P2+P9)</f>
-        <v>427700</v>
+        <f t="shared" si="3"/>
+        <v>2835200</v>
       </c>
       <c r="Q10" s="20">
-        <f>SUM(Q2+Q9)</f>
-        <v>547700</v>
+        <f t="shared" si="3"/>
+        <v>2675200</v>
       </c>
       <c r="R10" s="20">
-        <f>SUM(R2+R9)</f>
-        <v>667700</v>
+        <f t="shared" si="3"/>
+        <v>2515200</v>
       </c>
       <c r="S10" s="20">
-        <f>SUM(S2+S9)</f>
-        <v>947700</v>
+        <f t="shared" si="3"/>
+        <v>2555200</v>
       </c>
       <c r="T10" s="20">
-        <f>SUM(T2+T9)</f>
-        <v>1067700</v>
+        <f t="shared" si="3"/>
+        <v>2395200</v>
       </c>
       <c r="U10" s="20">
-        <f>SUM(U2+U9)</f>
-        <v>1187700</v>
+        <f t="shared" si="3"/>
+        <v>2235200</v>
       </c>
       <c r="V10" s="20">
-        <f>SUM(V2+V9)</f>
-        <v>1032900</v>
+        <f t="shared" si="3"/>
+        <v>1480400</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2686,7 +3044,7 @@
     </row>
     <row r="12" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -2716,29 +3074,29 @@
     </row>
     <row r="13" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="D13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="E13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="I13" s="16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
@@ -2756,29 +3114,29 @@
     </row>
     <row r="14" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="D14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="E14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="H14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="I14" s="16">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
@@ -2796,380 +3154,392 @@
     </row>
     <row r="15" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="16">
-        <v>300000</v>
-      </c>
-      <c r="D15" s="16">
-        <v>300000</v>
-      </c>
-      <c r="E15" s="16">
-        <v>300000</v>
-      </c>
-      <c r="F15" s="16">
-        <v>300000</v>
-      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="16">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="H15" s="16">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="I15" s="16">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
+      <c r="L15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="M15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="N15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="O15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="P15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="R15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="S15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="T15" s="16">
+        <v>600000</v>
+      </c>
+      <c r="U15" s="16">
+        <v>600000</v>
+      </c>
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="20">
-        <f t="shared" ref="B16:V16" si="2">SUM(B12:B15)</f>
+        <f t="shared" ref="B16:V16" si="4">SUM(B12:B15)</f>
         <v>0</v>
       </c>
       <c r="C16" s="20">
-        <f t="shared" si="2"/>
-        <v>332500</v>
+        <f t="shared" si="4"/>
+        <v>70000</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="2"/>
-        <v>332500</v>
+        <f t="shared" si="4"/>
+        <v>70000</v>
       </c>
       <c r="E16" s="20">
-        <f t="shared" si="2"/>
-        <v>332500</v>
+        <f t="shared" si="4"/>
+        <v>70000</v>
       </c>
       <c r="F16" s="20">
-        <f t="shared" si="2"/>
-        <v>332500</v>
+        <f t="shared" si="4"/>
+        <v>70000</v>
       </c>
       <c r="G16" s="20">
-        <f t="shared" si="2"/>
-        <v>487300</v>
+        <f t="shared" si="4"/>
+        <v>824800</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="2"/>
-        <v>332500</v>
+        <f t="shared" si="4"/>
+        <v>670000</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="2"/>
-        <v>332500</v>
+        <f t="shared" si="4"/>
+        <v>670000</v>
       </c>
       <c r="J16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="M16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="O16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="Q16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="R16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="S16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="T16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="U16" s="20">
-        <f t="shared" si="2"/>
-        <v>154800</v>
+        <f t="shared" si="4"/>
+        <v>754800</v>
       </c>
       <c r="V16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="20">
-        <f t="shared" ref="B17:V17" si="3">SUM(B16:B16)</f>
+        <f t="shared" ref="B17:V17" si="5">SUM(B16:B16)</f>
         <v>0</v>
       </c>
       <c r="C17" s="20">
-        <f t="shared" si="3"/>
-        <v>332500</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="3"/>
-        <v>332500</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" si="3"/>
-        <v>332500</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="3"/>
-        <v>332500</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="3"/>
-        <v>487300</v>
+        <f t="shared" si="5"/>
+        <v>824800</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="3"/>
-        <v>332500</v>
+        <f t="shared" si="5"/>
+        <v>670000</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="3"/>
-        <v>332500</v>
+        <f t="shared" si="5"/>
+        <v>670000</v>
       </c>
       <c r="J17" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K17" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>600000</v>
       </c>
       <c r="M17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>600000</v>
       </c>
       <c r="N17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>600000</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>600000</v>
       </c>
       <c r="P17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>600000</v>
       </c>
       <c r="Q17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>600000</v>
       </c>
       <c r="R17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>600000</v>
       </c>
       <c r="S17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>600000</v>
       </c>
       <c r="T17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>600000</v>
       </c>
       <c r="U17" s="20">
-        <f t="shared" ref="U17" si="4">SUM(U16:U16)</f>
-        <v>154800</v>
+        <f t="shared" ref="U17" si="6">SUM(U16:U16)</f>
+        <v>754800</v>
       </c>
       <c r="V17" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="22">
         <f>B2-B17</f>
-        <v>-650000</v>
+        <v>-3000000</v>
       </c>
       <c r="C18" s="22">
-        <f t="shared" ref="C18:U18" si="5">C10-C17</f>
-        <v>-982500</v>
+        <f t="shared" ref="C18:U18" si="7">C10-C17</f>
+        <v>-3070000</v>
       </c>
       <c r="D18" s="22">
-        <f t="shared" si="5"/>
-        <v>-1315000</v>
+        <f t="shared" si="7"/>
+        <v>-3140000</v>
       </c>
       <c r="E18" s="22">
-        <f t="shared" si="5"/>
-        <v>-1647500</v>
+        <f t="shared" si="7"/>
+        <v>-3210000</v>
       </c>
       <c r="F18" s="22">
-        <f t="shared" si="5"/>
-        <v>-1980000</v>
+        <f t="shared" si="7"/>
+        <v>-3280000</v>
       </c>
       <c r="G18" s="22">
-        <f t="shared" si="5"/>
-        <v>-67300</v>
+        <f t="shared" si="7"/>
+        <v>3095200</v>
       </c>
       <c r="H18" s="22">
-        <f t="shared" si="5"/>
-        <v>-279800</v>
+        <f t="shared" si="7"/>
+        <v>2865200</v>
       </c>
       <c r="I18" s="22">
-        <f t="shared" si="5"/>
-        <v>-332300</v>
+        <f t="shared" si="7"/>
+        <v>2835200</v>
       </c>
       <c r="J18" s="22">
-        <f t="shared" si="5"/>
-        <v>-332300</v>
+        <f t="shared" si="7"/>
+        <v>2835200</v>
       </c>
       <c r="K18" s="22">
-        <f t="shared" si="5"/>
-        <v>-332300</v>
+        <f t="shared" si="7"/>
+        <v>2835200</v>
       </c>
       <c r="L18" s="22">
-        <f t="shared" si="5"/>
-        <v>-212300</v>
+        <f t="shared" si="7"/>
+        <v>2675200</v>
       </c>
       <c r="M18" s="22">
-        <f t="shared" si="5"/>
-        <v>-92300</v>
+        <f t="shared" si="7"/>
+        <v>2515200</v>
       </c>
       <c r="N18" s="22">
-        <f t="shared" si="5"/>
-        <v>27700</v>
+        <f t="shared" si="7"/>
+        <v>2355200</v>
       </c>
       <c r="O18" s="22">
-        <f t="shared" si="5"/>
-        <v>307700</v>
+        <f t="shared" si="7"/>
+        <v>2395200</v>
       </c>
       <c r="P18" s="22">
-        <f t="shared" si="5"/>
-        <v>427700</v>
+        <f t="shared" si="7"/>
+        <v>2235200</v>
       </c>
       <c r="Q18" s="22">
-        <f t="shared" si="5"/>
-        <v>547700</v>
+        <f t="shared" si="7"/>
+        <v>2075200</v>
       </c>
       <c r="R18" s="22">
-        <f t="shared" si="5"/>
-        <v>667700</v>
+        <f t="shared" si="7"/>
+        <v>1915200</v>
       </c>
       <c r="S18" s="22">
-        <f t="shared" si="5"/>
-        <v>947700</v>
+        <f t="shared" si="7"/>
+        <v>1955200</v>
       </c>
       <c r="T18" s="22">
-        <f t="shared" si="5"/>
-        <v>1067700</v>
+        <f t="shared" si="7"/>
+        <v>1795200</v>
       </c>
       <c r="U18" s="22">
-        <f t="shared" si="5"/>
-        <v>1032900</v>
+        <f t="shared" si="7"/>
+        <v>1480400</v>
       </c>
       <c r="V18" s="22"/>
     </row>
     <row r="19" spans="1:22" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="33">
         <v>0.3</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="23">
         <f>B18</f>
-        <v>-650000</v>
+        <v>-3000000</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="34">
         <f>NPV(D20,H21,H22)</f>
-        <v>355568.04733727808</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="38"/>
+        <v>3056899.4082840239</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="40"/>
       <c r="H21" s="23">
         <f>J2</f>
-        <v>-332300</v>
+        <v>2835200</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="31">
         <f>IRR(H20:H22)</f>
-        <v>3.0625707843177086E-2</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="39"/>
+        <v>0.31914683297633939</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="41"/>
       <c r="H22" s="24">
         <f>V2</f>
-        <v>1032900</v>
+        <v>1480400</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J23" s="44"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3178,12 +3548,405 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="52">
+        <v>44</v>
+      </c>
+      <c r="D3" s="53">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="53">
+        <f>D3*C3</f>
+        <v>880000</v>
+      </c>
+      <c r="F3" s="54">
+        <f>E3</f>
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="56">
+        <v>2</v>
+      </c>
+      <c r="D4" s="57">
+        <v>300000</v>
+      </c>
+      <c r="E4" s="53">
+        <f t="shared" ref="E4:E6" si="0">D4*C4</f>
+        <v>600000</v>
+      </c>
+      <c r="F4" s="58">
+        <f>E4+F3</f>
+        <v>1480000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="56">
+        <v>2</v>
+      </c>
+      <c r="D5" s="57">
+        <v>40000</v>
+      </c>
+      <c r="E5" s="53">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="F5" s="58">
+        <f t="shared" ref="F5:F6" si="1">E5+F4</f>
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="56">
+        <v>1</v>
+      </c>
+      <c r="D6" s="57">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="53">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="F6" s="58">
+        <f t="shared" si="1"/>
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="62">
+        <f>F6*-1</f>
+        <v>-1610000</v>
+      </c>
+      <c r="G7" s="61">
+        <f>F7/12</f>
+        <v>-134166.66666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="63">
+        <v>2</v>
+      </c>
+      <c r="D11" s="64">
+        <v>100000</v>
+      </c>
+      <c r="E11" s="64">
+        <f>D11*C11</f>
+        <v>200000</v>
+      </c>
+      <c r="F11" s="65">
+        <f>E11</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="63">
+        <v>1</v>
+      </c>
+      <c r="D12" s="64">
+        <v>154000</v>
+      </c>
+      <c r="E12" s="64">
+        <f>(D12*C12)*-1</f>
+        <v>-154000</v>
+      </c>
+      <c r="F12" s="65">
+        <f>E12+F11</f>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="63">
+        <v>1</v>
+      </c>
+      <c r="D13" s="64">
+        <v>200000</v>
+      </c>
+      <c r="E13" s="64">
+        <f t="shared" ref="E13" si="2">D13*C13</f>
+        <v>200000</v>
+      </c>
+      <c r="F13" s="65">
+        <f>E13+F12</f>
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="66">
+        <f>F11+F12</f>
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="66">
+        <f>SUM(F11:F13)</f>
+        <v>492000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="61"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="67">
+        <v>6</v>
+      </c>
+      <c r="D20" s="68">
+        <v>200000</v>
+      </c>
+      <c r="E20" s="68">
+        <f>D20*C20</f>
+        <v>1200000</v>
+      </c>
+      <c r="F20" s="69">
+        <f>E20</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="63">
+        <v>1</v>
+      </c>
+      <c r="D21" s="70">
+        <v>200000</v>
+      </c>
+      <c r="E21" s="70">
+        <f>D21*C21</f>
+        <v>200000</v>
+      </c>
+      <c r="F21" s="71">
+        <f>E21+F20</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
+      <c r="B22" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="62">
+        <f>F21</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="74">
+        <f>F7+F14+F22</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="74">
+        <f>F22+F15+F7</f>
+        <v>282000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B22:D22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -3207,46 +3970,46 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="27"/>
@@ -3254,134 +4017,134 @@
       <c r="H2" s="27"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="26"/>
       <c r="J4" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="40" t="s">
-        <v>50</v>
+      <c r="J5" s="42" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="41"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="41"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="41"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="41"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -3391,11 +4154,11 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="42"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -3404,34 +4167,34 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J12" s="26"/>
     </row>
@@ -3444,7 +4207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3461,7 +4224,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="9">
         <v>-650000</v>
@@ -3470,13 +4233,13 @@
     <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="15">
         <v>400000</v>
@@ -3484,7 +4247,7 @@
     </row>
     <row r="5" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="15">
         <v>40000</v>
@@ -3492,7 +4255,7 @@
     </row>
     <row r="6" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="15">
         <v>200000</v>
@@ -3500,7 +4263,7 @@
     </row>
     <row r="7" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" s="15">
         <v>40000</v>
@@ -3508,7 +4271,7 @@
     </row>
     <row r="8" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B8" s="15">
         <v>10000</v>
@@ -3517,13 +4280,13 @@
     <row r="9" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="21"/>
     </row>
     <row r="11" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B11" s="15">
         <v>154800</v>
@@ -3531,7 +4294,7 @@
     </row>
     <row r="12" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" s="15">
         <v>30000</v>
@@ -3539,7 +4302,7 @@
     </row>
     <row r="13" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13" s="15">
         <v>2500</v>
@@ -3547,7 +4310,7 @@
     </row>
     <row r="14" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="15">
         <v>300000</v>
